--- a/calendar data mysql.xlsx
+++ b/calendar data mysql.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Besitzer\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C34EFA-042E-447F-9E67-F9CBC355230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584D18CD-1C0D-464B-A124-FA4C599F3E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="3" xr2:uid="{A5425AEA-A17E-453B-A26C-479BC0E952C3}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="mdholidays" sheetId="4" r:id="rId4"/>
     <sheet name="mdregion" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">mdholidays!$A$1:$N$80</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="198">
   <si>
     <t>holiday_id</t>
   </si>
@@ -600,11 +603,50 @@
   <si>
     <t>0815</t>
   </si>
+  <si>
+    <t>0527</t>
+  </si>
+  <si>
+    <t>Faschingsdienstag</t>
+  </si>
+  <si>
+    <t>St. Florian</t>
+  </si>
+  <si>
+    <t>Rupertikirtag</t>
+  </si>
+  <si>
+    <t>Tag der Volksabstimmung</t>
+  </si>
+  <si>
+    <t>St. Martin</t>
+  </si>
+  <si>
+    <t>Leopolditag</t>
+  </si>
+  <si>
+    <t>4. Advent</t>
+  </si>
+  <si>
+    <t>Heiliger Abend</t>
+  </si>
+  <si>
+    <t>0504</t>
+  </si>
+  <si>
+    <t>volksfest in Salzburg, end on 24 September, take 5 or 6 days</t>
+  </si>
+  <si>
+    <t>0924</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -622,12 +664,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -642,13 +690,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -27697,10 +27747,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BBBA52-B54E-4CA2-86F9-72F2105927A4}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H37" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27712,9 +27762,13 @@
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" customWidth="1"/>
+    <col min="13" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -27737,7 +27791,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -27753,14 +27807,26 @@
       <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>101</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2">
+        <v>-48</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -27776,14 +27842,26 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>106</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>-47</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -27799,14 +27877,14 @@
       <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>308</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -27828,8 +27906,20 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5">
+        <v>-46</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -27851,8 +27941,20 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="4">
+        <v>319</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -27874,8 +27976,20 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7">
+        <v>-2</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -27891,14 +28005,26 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>501</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -27920,8 +28046,20 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -27944,7 +28082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -27967,7 +28105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -27989,8 +28127,20 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -28006,14 +28156,26 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>815</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <v>49</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -28029,14 +28191,29 @@
       <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>920</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -28052,14 +28229,26 @@
       <c r="E15" t="s">
         <v>25</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>1003</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>1010</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -28075,14 +28264,26 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>1030</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1102</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -28098,14 +28299,26 @@
       <c r="E17" t="s">
         <v>25</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>1101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1111</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -28127,8 +28340,20 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <v>1115</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -28144,14 +28369,26 @@
       <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>1225</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19">
+        <v>-21</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -28173,8 +28410,20 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20">
+        <v>-14</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -28196,8 +28445,20 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>70</v>
+      </c>
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21">
+        <v>-7</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -28219,8 +28480,20 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -28242,8 +28515,20 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1224</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -28265,8 +28550,20 @@
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1231</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -28282,14 +28579,14 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -28312,7 +28609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -28328,14 +28625,14 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>319</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -28358,7 +28655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -28381,7 +28678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -28404,7 +28701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -28420,14 +28717,14 @@
       <c r="E31" t="s">
         <v>25</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="4">
         <v>430</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -28466,8 +28763,8 @@
       <c r="E33" t="s">
         <v>43</v>
       </c>
-      <c r="F33">
-        <v>527</v>
+      <c r="F33" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -28489,7 +28786,7 @@
       <c r="E34" t="s">
         <v>25</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="4">
         <v>624</v>
       </c>
       <c r="G34">
@@ -28512,7 +28809,7 @@
       <c r="E35" t="s">
         <v>25</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="4">
         <v>629</v>
       </c>
       <c r="G35">
@@ -28558,7 +28855,7 @@
       <c r="E37" t="s">
         <v>25</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>1031</v>
       </c>
       <c r="G37">
@@ -28581,7 +28878,7 @@
       <c r="E38" t="s">
         <v>25</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>1102</v>
       </c>
       <c r="G38">
@@ -28604,7 +28901,7 @@
       <c r="E39" t="s">
         <v>25</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>1111</v>
       </c>
       <c r="G39">
@@ -28765,7 +29062,7 @@
       <c r="E46" t="s">
         <v>25</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="4">
         <v>1224</v>
       </c>
       <c r="G46">
@@ -28788,7 +29085,7 @@
       <c r="E47" t="s">
         <v>25</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="4">
         <v>1231</v>
       </c>
       <c r="G47">
@@ -28814,8 +29111,11 @@
       <c r="F48" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -28834,8 +29134,11 @@
       <c r="F49" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -28854,8 +29157,11 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -28874,8 +29180,11 @@
       <c r="F51" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -28894,8 +29203,11 @@
       <c r="F52">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -28914,8 +29226,11 @@
       <c r="F53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -28934,8 +29249,11 @@
       <c r="F54">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -28954,8 +29272,11 @@
       <c r="F55" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -28974,8 +29295,11 @@
       <c r="F56">
         <v>1026</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -28994,8 +29318,11 @@
       <c r="F57">
         <v>1101</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -29014,8 +29341,11 @@
       <c r="F58">
         <v>1208</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -29034,8 +29364,11 @@
       <c r="F59">
         <v>1225</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -29054,9 +29387,474 @@
       <c r="F60">
         <v>1226</v>
       </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>14</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="4">
+        <v>319</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>16</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>17</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64">
+        <v>1010</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>18</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1111</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>19</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66">
+        <v>1115</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67">
+        <v>-48</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>187</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68">
+        <v>-47</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="D69" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69">
+        <v>-46</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>28</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>-2</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>30</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>25</v>
+      </c>
+      <c r="D72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73">
+        <v>49</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1102</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>28</v>
+      </c>
+      <c r="D75" t="s">
+        <v>68</v>
+      </c>
+      <c r="E75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75">
+        <v>-21</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>29</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76">
+        <v>-14</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77">
+        <v>-7</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>31</v>
+      </c>
+      <c r="D78" t="s">
+        <v>193</v>
+      </c>
+      <c r="E78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>32</v>
+      </c>
+      <c r="D79" t="s">
+        <v>194</v>
+      </c>
+      <c r="E79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1224</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>33</v>
+      </c>
+      <c r="D80" t="s">
+        <v>73</v>
+      </c>
+      <c r="E80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1231</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N80" xr:uid="{B8BBBA52-B54E-4CA2-86F9-72F2105927A4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
